--- a/Archetypes/s_archetypes.xlsx
+++ b/Archetypes/s_archetypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B85B53-AF87-46F2-8877-3BEF0DB6D6DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42157BE6-AECC-4382-B339-D48B90E5EBF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,13 +75,13 @@
     <t>tourism_hotel</t>
   </si>
   <si>
-    <t>appearance</t>
-  </si>
-  <si>
     <t>amenity_bank</t>
   </si>
   <si>
     <t>amenity_pharmacy</t>
+  </si>
+  <si>
+    <t>presence</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,7 +417,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>1</v>

--- a/Archetypes/s_archetypes.xlsx
+++ b/Archetypes/s_archetypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42157BE6-AECC-4382-B339-D48B90E5EBF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3309E4A-A114-4A39-82D3-4B4F721E7C1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
